--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.526944192411536E-05</v>
+        <v>1.277206020440273E-09</v>
       </c>
       <c r="E2">
-        <v>1.526944192411536E-05</v>
+        <v>1.277206020440273E-09</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.284412014885376E-34</v>
+        <v>1.078473582667919E-36</v>
       </c>
       <c r="E3">
-        <v>3.284412014885376E-34</v>
+        <v>1.078473582667919E-36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.577382001105534E-42</v>
+        <v>3.77913288638544E-46</v>
       </c>
       <c r="E4">
-        <v>2.577382001105534E-42</v>
+        <v>3.77913288638544E-46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.602035105411007E-112</v>
+        <v>9.709866522248019E-88</v>
       </c>
       <c r="E5">
-        <v>1.602035105411007E-112</v>
+        <v>9.709866522248019E-88</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.673338549038223E-19</v>
+        <v>3.112912560137823E-25</v>
       </c>
       <c r="E6">
-        <v>5.673338549038223E-19</v>
+        <v>3.112912560137823E-25</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999218</v>
+        <v>0.9999999999816445</v>
       </c>
       <c r="E8">
-        <v>7.815970093361102E-14</v>
+        <v>1.835553931073264E-11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.385992382771621E-15</v>
+        <v>5.292404928633002E-18</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.727390939752108E-50</v>
+        <v>1.685405785387158E-70</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>14.82518291473389</v>
+        <v>20.04392051696777</v>
       </c>
       <c r="G11">
         <v>0.8</v>
